--- a/outputs/18AI8116-04-2024.xlsx
+++ b/outputs/18AI8116-04-2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,124 +524,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>IDT20AI021</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Sejal Kaur Virdi</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Abstract and interface classes are
-both used to define contracts in
-object-oriented programming, but
-there are
-some key differences
-between them.</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>An abstract class is a class that cannot
-be instantiated and can contain both
-abstract and
-An interface
-non- abstract methods.
-on the other hand, is a
-contract that specifies
-a set of
-methods that a class must implement</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>In
-an
-can
-abstract class, some methods
-be implemented while 2 out of</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>4
-ways
-prove how abstract classes
-are beneficial to us. In contrast all
-methods in
-an interface are
-by
-default abstract.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>IDT20AI021</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Sejal Kaur Virdi</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Abstract and interface classes are
-both used to define contracts in
-object-oriented programming, but
-there are
-some key differences
-between them.</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>An abstract class is a class that cannot
-be instantiated and can contain both
-abstract and
-An interface
-non- abstract methods.
-on the other hand, is a
-contract that specifies
-a set of
-methods that a class must implement</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>In
-an
-can
-abstract class, some methods
-be implemented while 2 out of</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>4
-ways
-prove how abstract classes
-are beneficial to us. In contrast all
-methods in
-an interface are
-by
-default abstract.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
